--- a/data/suicide_data.xlsx
+++ b/data/suicide_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2-Study\4-2022 Fall Course\1-P8105-Data Science\fproject-draft\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A613158-660B-454D-93A3-A2763A25BAB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79354020-C66F-4928-B005-2A74ACC65516}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="4" r:id="rId1"/>
@@ -1082,8 +1082,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F12295D-F142-4F1D-BC7F-87844A1BE242}">
   <dimension ref="A1:E253"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView tabSelected="1" topLeftCell="A172" workbookViewId="0">
+      <selection activeCell="H145" sqref="H145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -3487,7 +3487,7 @@
         <v>3959</v>
       </c>
       <c r="E141">
-        <v>14.6</v>
+        <v>17.600000000000001</v>
       </c>
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.35">
@@ -4422,7 +4422,7 @@
         <v>3215</v>
       </c>
       <c r="E196">
-        <v>4.5999999999999996</v>
+        <v>7.6</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.35">
@@ -11037,7 +11037,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B06EC894-BCDE-4587-B10F-28429D508985}">
   <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A7" workbookViewId="0">
       <selection activeCell="M27" sqref="M27"/>
     </sheetView>
   </sheetViews>
